--- a/data/recepcion abastecimiento tentativa V3.xlsx
+++ b/data/recepcion abastecimiento tentativa V3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://riofuturo1-my.sharepoint.com/personal/msepulveda_riofuturo_cl/Documents/Escritorio/Rio Futuro Procesos/Temporada 2025-2026/Abastecimiento  al 07-11/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel Valladares\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="353" documentId="8_{0B0049D5-2E0B-4AC3-A77C-03CE44D40CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54DD728F-3E18-46C0-9EA3-A8FC058FD90F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F553E5B5-CCF0-46F6-9345-719E84EBD6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="4" xr2:uid="{9461A4CA-B01F-48B2-8F75-C6873CC98CE3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{9461A4CA-B01F-48B2-8F75-C6873CC98CE3}"/>
   </bookViews>
   <sheets>
     <sheet name="frambuesa" sheetId="1" state="hidden" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="316">
   <si>
     <t>Etiquetas de fila</t>
   </si>
@@ -771,19 +771,7 @@
     <t>PRODUCTORES ZONA SUR</t>
   </si>
   <si>
-    <t>WAKEFIELD ORGANICA</t>
-  </si>
-  <si>
     <t>EPPLE</t>
-  </si>
-  <si>
-    <t>MEEKER ORGANICA</t>
-  </si>
-  <si>
-    <t>FRAM HERITAGE CONVENCIONAL</t>
-  </si>
-  <si>
-    <t>FRAM HERITAGE ORGANICA</t>
   </si>
   <si>
     <t>PRODUCTOR ZONA NORTE ORGANICO</t>
@@ -994,6 +982,24 @@
   </si>
   <si>
     <t>Tunel Estaticos</t>
+  </si>
+  <si>
+    <t>FRAMBUESA WAKEFIELD</t>
+  </si>
+  <si>
+    <t>FRAMBUESA WAKEFIELD ORGANICA</t>
+  </si>
+  <si>
+    <t>FRAMBUESA HERITAGE CONVENCIONAL</t>
+  </si>
+  <si>
+    <t>FRAMBUESA HERITAGE ORGANICA</t>
+  </si>
+  <si>
+    <t>FRAMBUESA MEEKER</t>
+  </si>
+  <si>
+    <t>FRAMBUESA MEEKER ORGANICA</t>
   </si>
 </sst>
 </file>
@@ -8048,12 +8054,12 @@
         <v>6677162.0251963697</v>
       </c>
       <c r="AC3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="34" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
@@ -8062,12 +8068,12 @@
         <v>5315480.9735000003</v>
       </c>
       <c r="AC4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -8076,95 +8082,95 @@
         <v>1361681.0516963692</v>
       </c>
       <c r="AC5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="H6" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="I6" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="J6" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="K6" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="L6" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="M6" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="N6" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="O6" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="P6" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="Q6" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="R6" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="S6" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="T6" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="U6" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="V6" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="W6" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="X6" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="U6" s="24" t="s">
+      <c r="Y6" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="V6" s="24" t="s">
+      <c r="Z6" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="W6" s="24" t="s">
+      <c r="AA6" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="X6" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y6" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z6" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA6" s="24" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D7" s="40">
         <v>47</v>
@@ -8242,13 +8248,13 @@
     </row>
     <row r="8" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D8" s="42">
         <v>4525</v>
@@ -8327,13 +8333,13 @@
     </row>
     <row r="9" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D9" s="44">
         <v>228800</v>
@@ -8570,13 +8576,13 @@
     </row>
     <row r="13" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D13" s="40">
         <v>47</v>
@@ -8654,13 +8660,13 @@
     </row>
     <row r="14" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D14" s="42">
         <v>6000</v>
@@ -8739,13 +8745,13 @@
     </row>
     <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="59" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D15" s="44">
         <v>158400</v>
@@ -9041,13 +9047,13 @@
     </row>
     <row r="22" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -9077,13 +9083,13 @@
     </row>
     <row r="23" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>224</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D23" s="42">
         <v>0</v>
@@ -9164,13 +9170,13 @@
     </row>
     <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="59" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B24" s="40" t="s">
         <v>224</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D24" s="44">
         <v>94080</v>
@@ -9354,97 +9360,97 @@
     </row>
     <row r="27" spans="1:28" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="53" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B27" s="41"/>
     </row>
     <row r="28" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="37" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B28" s="41"/>
       <c r="D28" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H28" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="I28" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="J28" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="K28" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="L28" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="M28" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="N28" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="K28" s="24" t="s">
+      <c r="O28" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="L28" s="24" t="s">
+      <c r="P28" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="M28" s="24" t="s">
+      <c r="Q28" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="N28" s="24" t="s">
+      <c r="R28" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="O28" s="24" t="s">
+      <c r="S28" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="P28" s="24" t="s">
+      <c r="T28" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="Q28" s="24" t="s">
+      <c r="U28" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="R28" s="24" t="s">
+      <c r="V28" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="S28" s="24" t="s">
+      <c r="W28" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="T28" s="24" t="s">
+      <c r="X28" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="U28" s="24" t="s">
+      <c r="Y28" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="V28" s="24" t="s">
+      <c r="Z28" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="W28" s="24" t="s">
+      <c r="AA28" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="X28" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y28" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z28" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA28" s="24" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="38" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D29" s="40">
         <v>47</v>
@@ -9522,13 +9528,13 @@
     </row>
     <row r="30" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D30" s="42">
         <v>0</v>
@@ -9609,13 +9615,13 @@
     </row>
     <row r="31" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="C31" s="40" t="s">
         <v>305</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>309</v>
       </c>
       <c r="D31" s="44">
         <v>100800</v>
@@ -9802,13 +9808,13 @@
     </row>
     <row r="35" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="43" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
@@ -9838,13 +9844,13 @@
     </row>
     <row r="36" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D36" s="42">
         <f>((D31+D24)-(D23+D30))</f>
@@ -10009,13 +10015,13 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B57" s="41"/>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B58" s="45">
         <v>2600</v>
@@ -10023,7 +10029,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B59" s="41">
         <v>44</v>
@@ -10031,91 +10037,91 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B60" s="41"/>
       <c r="D60" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H60" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="I60" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="J60" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G60" s="24" t="s">
+      <c r="K60" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H60" s="24" t="s">
+      <c r="L60" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="I60" s="24" t="s">
+      <c r="M60" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="J60" s="24" t="s">
+      <c r="N60" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="K60" s="24" t="s">
+      <c r="O60" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="L60" s="24" t="s">
+      <c r="P60" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="M60" s="24" t="s">
+      <c r="Q60" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="N60" s="24" t="s">
+      <c r="R60" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="O60" s="24" t="s">
+      <c r="S60" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="P60" s="24" t="s">
+      <c r="T60" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="Q60" s="24" t="s">
+      <c r="U60" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="R60" s="24" t="s">
+      <c r="V60" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="S60" s="24" t="s">
+      <c r="W60" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="T60" s="24" t="s">
+      <c r="X60" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="U60" s="24" t="s">
+      <c r="Y60" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="V60" s="24" t="s">
+      <c r="Z60" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="W60" s="24" t="s">
+      <c r="AA60" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="X60" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y60" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z60" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA60" s="24" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="43" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D61" s="40">
         <v>47</v>
@@ -10192,10 +10198,10 @@
     </row>
     <row r="62" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="46" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C62" s="48">
         <v>2</v>
@@ -10399,7 +10405,7 @@
     </row>
     <row r="64" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="43" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="40"/>
@@ -10532,7 +10538,7 @@
         <v>-294846.6100000001</v>
       </c>
       <c r="AC65" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
@@ -10591,7 +10597,7 @@
     </row>
     <row r="68" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="52" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B68" s="41"/>
       <c r="D68" s="42"/>
@@ -10621,7 +10627,7 @@
     </row>
     <row r="69" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="52" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B69" s="41"/>
       <c r="D69" s="42"/>
@@ -10651,13 +10657,13 @@
     </row>
     <row r="70" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="43" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D70" s="40">
         <v>47</v>
@@ -10735,13 +10741,13 @@
     </row>
     <row r="71" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B71" s="41" t="s">
         <v>224</v>
       </c>
       <c r="C71" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D71" s="42">
         <v>0</v>
@@ -10820,13 +10826,13 @@
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B72" s="41" t="s">
         <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D72" s="42"/>
       <c r="E72" s="42"/>
@@ -10859,13 +10865,13 @@
     </row>
     <row r="73" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="43" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B73" s="39" t="s">
         <v>224</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D73" s="44"/>
       <c r="E73" s="44"/>
@@ -11074,90 +11080,90 @@
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D77" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H77" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E77" s="24" t="s">
+      <c r="I77" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="F77" s="24" t="s">
+      <c r="J77" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G77" s="24" t="s">
+      <c r="K77" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H77" s="24" t="s">
+      <c r="L77" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="I77" s="24" t="s">
+      <c r="M77" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="J77" s="24" t="s">
+      <c r="N77" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="K77" s="24" t="s">
+      <c r="O77" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="L77" s="24" t="s">
+      <c r="P77" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="M77" s="24" t="s">
+      <c r="Q77" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="N77" s="24" t="s">
+      <c r="R77" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="O77" s="24" t="s">
+      <c r="S77" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="P77" s="24" t="s">
+      <c r="T77" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="Q77" s="24" t="s">
+      <c r="U77" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="R77" s="24" t="s">
+      <c r="V77" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="S77" s="24" t="s">
+      <c r="W77" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="T77" s="24" t="s">
+      <c r="X77" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="U77" s="24" t="s">
+      <c r="Y77" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="V77" s="24" t="s">
+      <c r="Z77" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="W77" s="24" t="s">
+      <c r="AA77" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="X77" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y77" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z77" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA77" s="24" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="43" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D78" s="40">
         <v>47</v>
@@ -11234,10 +11240,10 @@
     </row>
     <row r="79" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B79" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C79" s="24">
         <v>1</v>
@@ -11341,7 +11347,7 @@
     </row>
     <row r="81" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="43" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B81" s="43"/>
       <c r="C81" s="40"/>
@@ -11505,7 +11511,7 @@
     </row>
     <row r="84" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B84" s="41"/>
       <c r="D84" s="42">
@@ -11692,7 +11698,7 @@
     </row>
     <row r="88" spans="1:28" ht="21" x14ac:dyDescent="0.4">
       <c r="A88" s="53" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B88" s="41"/>
       <c r="D88" s="42"/>
@@ -11722,91 +11728,91 @@
     </row>
     <row r="89" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="52" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B89" s="41"/>
       <c r="D89" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="E89" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="F89" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="G89" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="H89" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="I89" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="F89" s="42" t="s">
+      <c r="J89" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="G89" s="42" t="s">
+      <c r="K89" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="H89" s="42" t="s">
+      <c r="L89" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="I89" s="42" t="s">
+      <c r="M89" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="J89" s="42" t="s">
+      <c r="N89" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="K89" s="42" t="s">
+      <c r="O89" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="L89" s="42" t="s">
+      <c r="P89" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="M89" s="42" t="s">
+      <c r="Q89" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="N89" s="42" t="s">
+      <c r="R89" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="O89" s="42" t="s">
+      <c r="S89" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="P89" s="42" t="s">
+      <c r="T89" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="Q89" s="42" t="s">
+      <c r="U89" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="R89" s="42" t="s">
+      <c r="V89" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="S89" s="42" t="s">
+      <c r="W89" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="T89" s="42" t="s">
+      <c r="X89" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="U89" s="42" t="s">
+      <c r="Y89" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="V89" s="42" t="s">
+      <c r="Z89" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="W89" s="42" t="s">
+      <c r="AA89" s="42" t="s">
         <v>271</v>
-      </c>
-      <c r="X89" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y89" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z89" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA89" s="42" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="54" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B90" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D90" s="40">
         <v>47</v>
@@ -11883,13 +11889,13 @@
     </row>
     <row r="91" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B91" s="41" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D91" s="42">
         <v>0</v>
@@ -11964,13 +11970,13 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B92" s="41" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D92" s="42">
         <v>0</v>
@@ -12045,13 +12051,13 @@
     </row>
     <row r="93" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="43" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D93" s="44">
         <v>0</v>
@@ -12232,18 +12238,18 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="43" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D97" s="40">
         <v>47</v>
@@ -12320,10 +12326,10 @@
     </row>
     <row r="98" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B98" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D98" s="42">
         <v>100800</v>
@@ -12406,7 +12412,7 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D100" s="42">
         <f>D98-D94</f>
@@ -12537,7 +12543,7 @@
     </row>
     <row r="103" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="43" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B103" s="43"/>
       <c r="C103" s="40"/>
@@ -16480,16 +16486,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1406E7DA-EE1B-43AD-BD42-2FAA9B5D6B8B}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
   <dimension ref="A1:AA228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D228" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D214" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D262" sqref="D262"/>
+      <selection pane="bottomRight" activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16676,7 +16682,7 @@
         <v>224</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -19833,7 +19839,7 @@
         <v>223</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
@@ -19870,7 +19876,7 @@
         <v>224</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
@@ -19911,7 +19917,7 @@
         <v>224</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
@@ -19962,7 +19968,7 @@
         <v>224</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
@@ -20007,7 +20013,7 @@
         <v>223</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
@@ -20060,7 +20066,7 @@
         <v>224</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
@@ -20107,7 +20113,7 @@
         <v>223</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
@@ -20144,7 +20150,7 @@
         <v>224</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
@@ -20182,7 +20188,7 @@
         <v>223</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
@@ -20221,7 +20227,7 @@
         <v>224</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
@@ -20264,13 +20270,13 @@
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>224</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
@@ -20311,7 +20317,7 @@
         <v>224</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>152</v>
+        <v>310</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
@@ -20358,7 +20364,7 @@
         <v>223</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
@@ -20395,7 +20401,7 @@
         <v>223</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
@@ -20432,7 +20438,7 @@
         <v>223</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
@@ -20469,7 +20475,7 @@
         <v>223</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
@@ -20508,7 +20514,7 @@
         <v>223</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
@@ -20547,7 +20553,7 @@
         <v>223</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
@@ -20584,7 +20590,7 @@
         <v>223</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
@@ -20623,7 +20629,7 @@
         <v>223</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
@@ -20662,7 +20668,7 @@
         <v>224</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
@@ -20709,7 +20715,7 @@
         <v>223</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
@@ -20752,7 +20758,7 @@
         <v>223</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
@@ -20795,7 +20801,7 @@
         <v>224</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
@@ -20842,7 +20848,7 @@
         <v>223</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
@@ -20881,7 +20887,7 @@
         <v>223</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
@@ -20920,7 +20926,7 @@
         <v>223</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
@@ -20959,7 +20965,7 @@
         <v>224</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>243</v>
+        <v>313</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
@@ -21002,13 +21008,13 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>223</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>243</v>
+        <v>313</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
@@ -21051,7 +21057,7 @@
         <v>224</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
@@ -21098,7 +21104,7 @@
         <v>223</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -21154,7 +21160,7 @@
         <v>223</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
@@ -21203,7 +21209,7 @@
         <v>224</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
@@ -21240,7 +21246,7 @@
         <v>223</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
@@ -21283,7 +21289,7 @@
         <v>224</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>243</v>
+        <v>313</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
@@ -21320,7 +21326,7 @@
         <v>223</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
@@ -21365,7 +21371,7 @@
         <v>223</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -21402,7 +21408,7 @@
         <v>223</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="14"/>
@@ -21441,7 +21447,7 @@
         <v>223</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D111" s="14"/>
       <c r="E111" s="14"/>
@@ -21480,7 +21486,7 @@
         <v>223</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="14"/>
@@ -21519,7 +21525,7 @@
         <v>224</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D113" s="14"/>
       <c r="E113" s="14"/>
@@ -21562,7 +21568,7 @@
         <v>224</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D114" s="14"/>
       <c r="E114" s="14"/>
@@ -21609,7 +21615,7 @@
         <v>223</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D115" s="14"/>
       <c r="E115" s="14"/>
@@ -21648,7 +21654,7 @@
         <v>223</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
@@ -21685,7 +21691,7 @@
         <v>223</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
@@ -21724,7 +21730,7 @@
         <v>223</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
@@ -21763,7 +21769,7 @@
         <v>224</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
@@ -21808,7 +21814,7 @@
         <v>223</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D120" s="14"/>
       <c r="E120" s="14"/>
@@ -21847,7 +21853,7 @@
         <v>224</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D121" s="14"/>
       <c r="E121" s="14"/>
@@ -21886,7 +21892,7 @@
         <v>223</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
@@ -21923,7 +21929,7 @@
         <v>224</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D123" s="14"/>
       <c r="E123" s="14"/>
@@ -21968,7 +21974,7 @@
         <v>223</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D124" s="14"/>
       <c r="E124" s="14"/>
@@ -22005,7 +22011,7 @@
         <v>223</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D125" s="14"/>
       <c r="E125" s="14"/>
@@ -22044,7 +22050,7 @@
         <v>223</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D126" s="14"/>
       <c r="E126" s="14"/>
@@ -22083,7 +22089,7 @@
         <v>223</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D127" s="14"/>
       <c r="E127" s="14"/>
@@ -22122,7 +22128,7 @@
         <v>224</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D128" s="14"/>
       <c r="E128" s="14"/>
@@ -22165,7 +22171,7 @@
         <v>224</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
@@ -22202,7 +22208,7 @@
         <v>224</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D130" s="14"/>
       <c r="E130" s="14"/>
@@ -22249,7 +22255,7 @@
         <v>223</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D131" s="14"/>
       <c r="E131" s="14"/>
@@ -22288,7 +22294,7 @@
         <v>223</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D132" s="14"/>
       <c r="E132" s="14"/>
@@ -22325,7 +22331,7 @@
         <v>223</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D133" s="14"/>
       <c r="E133" s="14"/>
@@ -22364,7 +22370,7 @@
         <v>223</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D134" s="14"/>
       <c r="E134" s="14"/>
@@ -22401,7 +22407,7 @@
         <v>224</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D135" s="14"/>
       <c r="E135" s="14"/>
@@ -22446,7 +22452,7 @@
         <v>223</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D136" s="14"/>
       <c r="E136" s="14"/>
@@ -22485,7 +22491,7 @@
         <v>223</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D137" s="14"/>
       <c r="E137" s="14"/>
@@ -22522,7 +22528,7 @@
         <v>223</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D138" s="14"/>
       <c r="E138" s="14"/>
@@ -22561,7 +22567,7 @@
         <v>223</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D139" s="14"/>
       <c r="E139" s="14"/>
@@ -22598,7 +22604,7 @@
         <v>223</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="14"/>
@@ -22635,7 +22641,7 @@
         <v>224</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D141" s="14"/>
       <c r="E141" s="14"/>
@@ -22680,7 +22686,7 @@
         <v>223</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D142" s="14"/>
       <c r="E142" s="14"/>
@@ -22719,7 +22725,7 @@
         <v>223</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D143" s="14"/>
       <c r="E143" s="14"/>
@@ -22758,7 +22764,7 @@
         <v>224</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="D144" s="14"/>
       <c r="E144" s="14"/>
@@ -22821,7 +22827,7 @@
         <v>224</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D145" s="14"/>
       <c r="E145" s="14"/>
@@ -22866,7 +22872,7 @@
         <v>224</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D146" s="14"/>
       <c r="E146" s="14"/>
@@ -22909,7 +22915,7 @@
         <v>223</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D147" s="14"/>
       <c r="E147" s="14"/>
@@ -22950,7 +22956,7 @@
         <v>223</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D148" s="14"/>
       <c r="E148" s="14"/>
@@ -22989,7 +22995,7 @@
         <v>223</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D149" s="14"/>
       <c r="E149" s="14"/>
@@ -23026,7 +23032,7 @@
         <v>223</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D150" s="14"/>
       <c r="E150" s="14"/>
@@ -23063,7 +23069,7 @@
         <v>224</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D151" s="14"/>
       <c r="E151" s="14"/>
@@ -23106,7 +23112,7 @@
         <v>223</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D152" s="14"/>
       <c r="E152" s="14"/>
@@ -23143,7 +23149,7 @@
         <v>223</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D153" s="14"/>
       <c r="E153" s="14"/>
@@ -23180,7 +23186,7 @@
         <v>223</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D154" s="14"/>
       <c r="E154" s="14"/>
@@ -23227,7 +23233,7 @@
         <v>223</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D155" s="14"/>
       <c r="E155" s="14"/>
@@ -23270,7 +23276,7 @@
         <v>223</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D156" s="14"/>
       <c r="E156" s="14"/>
@@ -23307,7 +23313,7 @@
         <v>223</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D157" s="14"/>
       <c r="E157" s="14"/>
@@ -23344,7 +23350,7 @@
         <v>223</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D158" s="14"/>
       <c r="E158" s="14"/>
@@ -23391,7 +23397,7 @@
         <v>223</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D159" s="14"/>
       <c r="E159" s="14"/>
@@ -23430,7 +23436,7 @@
         <v>224</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D160" s="14"/>
       <c r="E160" s="14"/>
@@ -23477,7 +23483,7 @@
         <v>223</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D161" s="14"/>
       <c r="E161" s="14"/>
@@ -23516,7 +23522,7 @@
         <v>223</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D162" s="14"/>
       <c r="E162" s="14"/>
@@ -23555,7 +23561,7 @@
         <v>223</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D163" s="14"/>
       <c r="E163" s="14"/>
@@ -23592,7 +23598,7 @@
         <v>223</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D164" s="14"/>
       <c r="E164" s="14"/>
@@ -23629,7 +23635,7 @@
         <v>224</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D165" s="14"/>
       <c r="E165" s="14"/>
@@ -23674,7 +23680,7 @@
         <v>223</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D166" s="14"/>
       <c r="E166" s="14"/>
@@ -23713,7 +23719,7 @@
         <v>223</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D167" s="14"/>
       <c r="E167" s="14"/>
@@ -23750,7 +23756,7 @@
         <v>224</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D168" s="14"/>
       <c r="E168" s="14"/>
@@ -23797,7 +23803,7 @@
         <v>223</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D169" s="14"/>
       <c r="E169" s="14"/>
@@ -23836,7 +23842,7 @@
         <v>223</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D170" s="14"/>
       <c r="E170" s="14"/>
@@ -23885,7 +23891,7 @@
         <v>223</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D171" s="14"/>
       <c r="E171" s="14"/>
@@ -23934,7 +23940,7 @@
         <v>224</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D172" s="14"/>
       <c r="E172" s="14"/>
@@ -23979,7 +23985,7 @@
         <v>223</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D173" s="14"/>
       <c r="E173" s="14"/>
@@ -24024,7 +24030,7 @@
         <v>224</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D174" s="14"/>
       <c r="E174" s="14"/>
@@ -24069,7 +24075,7 @@
         <v>224</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D175" s="14"/>
       <c r="E175" s="14"/>
@@ -24106,7 +24112,7 @@
         <v>223</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D176" s="14"/>
       <c r="E176" s="14"/>
@@ -24145,7 +24151,7 @@
         <v>223</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D177" s="14"/>
       <c r="E177" s="14"/>
@@ -24184,7 +24190,7 @@
         <v>224</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
@@ -24223,7 +24229,7 @@
         <v>224</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D179" s="14"/>
       <c r="E179" s="14"/>
@@ -24268,7 +24274,7 @@
         <v>224</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D180" s="14"/>
       <c r="E180" s="14"/>
@@ -24313,7 +24319,7 @@
         <v>224</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D181" s="14"/>
       <c r="E181" s="14"/>
@@ -24350,7 +24356,7 @@
         <v>223</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D182" s="14"/>
       <c r="E182" s="14"/>
@@ -24389,7 +24395,7 @@
         <v>224</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D183" s="14"/>
       <c r="E183" s="14"/>
@@ -24434,7 +24440,7 @@
         <v>223</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D184" s="14"/>
       <c r="E184" s="14"/>
@@ -24471,7 +24477,7 @@
         <v>223</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D185" s="14"/>
       <c r="E185" s="14"/>
@@ -24514,7 +24520,7 @@
         <v>223</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D186" s="14"/>
       <c r="E186" s="14"/>
@@ -24553,7 +24559,7 @@
         <v>223</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D187" s="14"/>
       <c r="E187" s="14"/>
@@ -24590,7 +24596,7 @@
         <v>224</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D188" s="14"/>
       <c r="E188" s="14"/>
@@ -24631,7 +24637,7 @@
         <v>223</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D189" s="14"/>
       <c r="E189" s="14"/>
@@ -24670,7 +24676,7 @@
         <v>223</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D190" s="14"/>
       <c r="E190" s="14"/>
@@ -24707,7 +24713,7 @@
         <v>223</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D191" s="14"/>
       <c r="E191" s="14"/>
@@ -24744,7 +24750,7 @@
         <v>223</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D192" s="14"/>
       <c r="E192" s="14"/>
@@ -24783,7 +24789,7 @@
         <v>223</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D193" s="14"/>
       <c r="E193" s="14"/>
@@ -24828,7 +24834,7 @@
         <v>223</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D194" s="14"/>
       <c r="E194" s="14"/>
@@ -24877,7 +24883,7 @@
         <v>223</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D195" s="14"/>
       <c r="E195" s="14"/>
@@ -24924,7 +24930,7 @@
         <v>223</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D196" s="14"/>
       <c r="E196" s="14"/>
@@ -24971,7 +24977,7 @@
         <v>223</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D197" s="14"/>
       <c r="E197" s="14"/>
@@ -25008,7 +25014,7 @@
         <v>224</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D198" s="14"/>
       <c r="E198" s="14"/>
@@ -25051,7 +25057,7 @@
         <v>223</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D199" s="14"/>
       <c r="E199" s="14"/>
@@ -25090,7 +25096,7 @@
         <v>224</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D200" s="14"/>
       <c r="E200" s="14"/>
@@ -25135,7 +25141,7 @@
         <v>223</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D201" s="14"/>
       <c r="E201" s="14"/>
@@ -25174,7 +25180,7 @@
         <v>223</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D202" s="14"/>
       <c r="E202" s="14"/>
@@ -25211,7 +25217,7 @@
         <v>223</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D203" s="14"/>
       <c r="E203" s="14"/>
@@ -25250,7 +25256,7 @@
         <v>223</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D204" s="14"/>
       <c r="E204" s="14"/>
@@ -25287,7 +25293,7 @@
         <v>224</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D205" s="14"/>
       <c r="E205" s="14"/>
@@ -25332,7 +25338,7 @@
         <v>224</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D206" s="14"/>
       <c r="E206" s="14"/>
@@ -25377,7 +25383,7 @@
         <v>223</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D207" s="14"/>
       <c r="E207" s="14"/>
@@ -25414,7 +25420,7 @@
         <v>223</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D208" s="14"/>
       <c r="E208" s="14"/>
@@ -25451,7 +25457,7 @@
         <v>223</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D209" s="14"/>
       <c r="E209" s="14"/>
@@ -25502,7 +25508,7 @@
         <v>223</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D210" s="14"/>
       <c r="E210" s="14"/>
@@ -25539,7 +25545,7 @@
         <v>223</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D211" s="14"/>
       <c r="E211" s="14"/>
@@ -25576,7 +25582,7 @@
         <v>223</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D212" s="14"/>
       <c r="E212" s="14"/>
@@ -25615,7 +25621,7 @@
         <v>223</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D213" s="14"/>
       <c r="E213" s="14"/>
@@ -25654,7 +25660,7 @@
         <v>224</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D214" s="14"/>
       <c r="E214" s="14"/>
@@ -25701,7 +25707,7 @@
         <v>224</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D215" s="14"/>
       <c r="E215" s="14"/>
@@ -25746,7 +25752,7 @@
         <v>224</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D216" s="14"/>
       <c r="E216" s="14"/>
@@ -25791,7 +25797,7 @@
         <v>223</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D217" s="14"/>
       <c r="E217" s="14"/>
@@ -25828,7 +25834,7 @@
         <v>223</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D218" s="14"/>
       <c r="E218" s="14"/>
@@ -25867,7 +25873,7 @@
         <v>224</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D219" s="14"/>
       <c r="E219" s="14"/>
@@ -25910,7 +25916,7 @@
         <v>223</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D220" s="14"/>
       <c r="E220" s="14"/>
@@ -25949,7 +25955,7 @@
         <v>224</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>243</v>
+        <v>313</v>
       </c>
       <c r="D221" s="14"/>
       <c r="E221" s="14"/>
@@ -26006,7 +26012,7 @@
         <v>224</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D222" s="14"/>
       <c r="E222" s="14"/>
@@ -26049,7 +26055,7 @@
         <v>224</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D223" s="14"/>
       <c r="E223" s="14"/>
@@ -26090,7 +26096,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D224" s="14"/>
       <c r="E224" s="14"/>
@@ -26129,7 +26135,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D225" s="14"/>
       <c r="E225" s="14"/>
@@ -26176,7 +26182,7 @@
         <v>223</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D226" s="14"/>
       <c r="E226" s="14"/>
@@ -26222,7 +26228,7 @@
         <v>6677162.0251963707</v>
       </c>
     </row>
-    <row r="227" spans="1:27" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="16"/>
       <c r="B227" s="23"/>
       <c r="C227" s="16"/>
@@ -26323,95 +26329,95 @@
     <row r="228" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D228" s="56">
         <f>SUBTOTAL(9,D3:D227)</f>
-        <v>10525</v>
+        <v>21050</v>
       </c>
       <c r="E228" s="56">
         <f t="shared" ref="E228:Z228" si="1">SUBTOTAL(9,E3:E227)</f>
-        <v>49667.75</v>
+        <v>99335.5</v>
       </c>
       <c r="F228" s="56">
         <f t="shared" si="1"/>
-        <v>163719.21102970297</v>
+        <v>327438.42205940594</v>
       </c>
       <c r="G228" s="56">
         <f>SUBTOTAL(9,G3:G227)</f>
-        <v>250440.90549999999</v>
+        <v>500881.81099999999</v>
       </c>
       <c r="H228" s="56">
         <f t="shared" si="1"/>
-        <v>365405.68866666651</v>
+        <v>730811.37733333302</v>
       </c>
       <c r="I228" s="56">
         <f t="shared" si="1"/>
-        <v>515570.11499999999</v>
+        <v>1031140.23</v>
       </c>
       <c r="J228" s="56">
         <f t="shared" si="1"/>
-        <v>474667.97199999972</v>
+        <v>949335.94399999944</v>
       </c>
       <c r="K228" s="56">
         <f t="shared" si="1"/>
-        <v>633893.43500000029</v>
+        <v>1267786.8700000006</v>
       </c>
       <c r="L228" s="56">
         <f t="shared" si="1"/>
-        <v>393134.83499999985</v>
+        <v>786269.66999999969</v>
       </c>
       <c r="M228" s="56">
         <f t="shared" si="1"/>
-        <v>442099.48500000022</v>
+        <v>884198.97000000044</v>
       </c>
       <c r="N228" s="56">
         <f t="shared" si="1"/>
-        <v>385235.74000000011</v>
+        <v>770471.48000000021</v>
       </c>
       <c r="O228" s="56">
         <f t="shared" si="1"/>
-        <v>365158.15800000005</v>
+        <v>730316.31600000011</v>
       </c>
       <c r="P228" s="56">
         <f t="shared" si="1"/>
-        <v>298745.86000000004</v>
+        <v>597491.72000000009</v>
       </c>
       <c r="Q228" s="56">
         <f t="shared" si="1"/>
-        <v>189374.77000000002</v>
+        <v>378749.54000000004</v>
       </c>
       <c r="R228" s="56">
         <f t="shared" si="1"/>
-        <v>291527.92</v>
+        <v>583055.84</v>
       </c>
       <c r="S228" s="56">
         <f t="shared" si="1"/>
-        <v>403735.62</v>
+        <v>807471.24</v>
       </c>
       <c r="T228" s="56">
         <f t="shared" si="1"/>
-        <v>374610.57</v>
+        <v>749221.14</v>
       </c>
       <c r="U228" s="56">
         <f t="shared" si="1"/>
-        <v>272098.07999999996</v>
+        <v>544196.15999999992</v>
       </c>
       <c r="V228" s="56">
         <f t="shared" si="1"/>
-        <v>173942.91</v>
+        <v>347885.82</v>
       </c>
       <c r="W228" s="56">
         <f t="shared" si="1"/>
-        <v>243000</v>
+        <v>486000</v>
       </c>
       <c r="X228" s="56">
         <f t="shared" si="1"/>
-        <v>182608</v>
+        <v>365216</v>
       </c>
       <c r="Y228" s="56">
         <f t="shared" si="1"/>
-        <v>116000</v>
+        <v>232000</v>
       </c>
       <c r="Z228" s="56">
         <f t="shared" si="1"/>
-        <v>82000</v>
+        <v>164000</v>
       </c>
       <c r="AA228">
         <f t="shared" ref="AA228" si="2">SUBTOTAL(9,AA4:AA227)</f>
@@ -26419,13 +26425,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AA227" xr:uid="{1406E7DA-EE1B-43AD-BD42-2FAA9B5D6B8B}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:AA227" xr:uid="{1406E7DA-EE1B-43AD-BD42-2FAA9B5D6B8B}"/>
   <mergeCells count="7">
     <mergeCell ref="AA226:AA227"/>
     <mergeCell ref="D1:E1"/>
@@ -26495,7 +26495,7 @@
         <v>209</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O2" s="8"/>
     </row>
@@ -27070,12 +27070,12 @@
         <v>6677162.0251963697</v>
       </c>
       <c r="AC3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="34" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
@@ -27084,12 +27084,12 @@
         <v>5315480.9735000003</v>
       </c>
       <c r="AC4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -27098,95 +27098,95 @@
         <v>1361681.0516963692</v>
       </c>
       <c r="AC5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="H6" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="I6" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="J6" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="K6" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="L6" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="M6" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="N6" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="O6" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="P6" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="Q6" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="R6" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="S6" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="T6" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="U6" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="V6" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="W6" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="X6" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="U6" s="24" t="s">
+      <c r="Y6" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="V6" s="24" t="s">
+      <c r="Z6" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="W6" s="24" t="s">
+      <c r="AA6" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="X6" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y6" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z6" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA6" s="24" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D7" s="40">
         <v>47</v>
@@ -27264,13 +27264,13 @@
     </row>
     <row r="8" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>224</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D8" s="42">
         <v>4525</v>
@@ -27353,7 +27353,7 @@
         <v>224</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D9" s="44">
         <v>6000</v>
@@ -27565,13 +27565,13 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B13" s="41"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B14" s="45">
         <v>2600</v>
@@ -27579,7 +27579,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B15" s="41">
         <v>44</v>
@@ -27587,91 +27587,91 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B16" s="41"/>
       <c r="D16" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H16" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="I16" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="J16" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="K16" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="L16" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="M16" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="N16" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="O16" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="P16" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="M16" s="24" t="s">
+      <c r="Q16" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="R16" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="O16" s="24" t="s">
+      <c r="S16" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="P16" s="24" t="s">
+      <c r="T16" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="U16" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="R16" s="24" t="s">
+      <c r="V16" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="S16" s="24" t="s">
+      <c r="W16" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="T16" s="24" t="s">
+      <c r="X16" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="U16" s="24" t="s">
+      <c r="Y16" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="V16" s="24" t="s">
+      <c r="Z16" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="W16" s="24" t="s">
+      <c r="AA16" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="X16" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y16" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z16" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA16" s="24" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="43" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D17" s="40">
         <v>47</v>
@@ -27748,10 +27748,10 @@
     </row>
     <row r="18" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="46" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C18" s="48">
         <v>2</v>
@@ -27955,7 +27955,7 @@
     </row>
     <row r="20" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="43" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="40"/>
@@ -28088,7 +28088,7 @@
         <v>-294846.6100000001</v>
       </c>
       <c r="AC21" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
@@ -28096,13 +28096,13 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B23" s="41"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B24" s="41">
         <v>1800</v>
@@ -28110,7 +28110,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B25" s="41">
         <v>44</v>
@@ -28118,91 +28118,91 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B26" s="41"/>
       <c r="D26" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H26" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="I26" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="J26" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="K26" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="L26" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="M26" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="N26" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="K26" s="24" t="s">
+      <c r="O26" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="L26" s="24" t="s">
+      <c r="P26" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="M26" s="24" t="s">
+      <c r="Q26" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="N26" s="24" t="s">
+      <c r="R26" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="O26" s="24" t="s">
+      <c r="S26" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="P26" s="24" t="s">
+      <c r="T26" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="Q26" s="24" t="s">
+      <c r="U26" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="R26" s="24" t="s">
+      <c r="V26" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="S26" s="24" t="s">
+      <c r="W26" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="T26" s="24" t="s">
+      <c r="X26" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="U26" s="24" t="s">
+      <c r="Y26" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="V26" s="24" t="s">
+      <c r="Z26" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="W26" s="24" t="s">
+      <c r="AA26" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="X26" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y26" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z26" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA26" s="24" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D27" s="40">
         <v>47</v>
@@ -28279,10 +28279,10 @@
     </row>
     <row r="28" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="46" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="49">
@@ -28483,7 +28483,7 @@
     </row>
     <row r="30" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="43" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="40"/>
@@ -28685,7 +28685,7 @@
     </row>
     <row r="35" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="52" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B35" s="41"/>
       <c r="D35" s="42"/>
@@ -28715,7 +28715,7 @@
     </row>
     <row r="36" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="52" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B36" s="41"/>
       <c r="D36" s="42"/>
@@ -28745,13 +28745,13 @@
     </row>
     <row r="37" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="43" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D37" s="40">
         <v>47</v>
@@ -28829,13 +28829,13 @@
     </row>
     <row r="38" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B38" s="41" t="s">
         <v>224</v>
       </c>
       <c r="C38" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D38" s="42">
         <v>0</v>
@@ -28914,13 +28914,13 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B39" s="41" t="s">
         <v>224</v>
       </c>
       <c r="C39" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
@@ -28953,13 +28953,13 @@
     </row>
     <row r="40" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="43" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B40" s="39" t="s">
         <v>224</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D40" s="44"/>
       <c r="E40" s="44"/>
@@ -29168,90 +29168,90 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D44" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H44" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="I44" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="J44" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="K44" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="L44" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="M44" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="N44" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="K44" s="24" t="s">
+      <c r="O44" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="L44" s="24" t="s">
+      <c r="P44" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="M44" s="24" t="s">
+      <c r="Q44" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="N44" s="24" t="s">
+      <c r="R44" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="O44" s="24" t="s">
+      <c r="S44" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="P44" s="24" t="s">
+      <c r="T44" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="Q44" s="24" t="s">
+      <c r="U44" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="R44" s="24" t="s">
+      <c r="V44" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="S44" s="24" t="s">
+      <c r="W44" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="T44" s="24" t="s">
+      <c r="X44" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="U44" s="24" t="s">
+      <c r="Y44" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="V44" s="24" t="s">
+      <c r="Z44" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="W44" s="24" t="s">
+      <c r="AA44" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="X44" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y44" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z44" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA44" s="24" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="43" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D45" s="40">
         <v>47</v>
@@ -29328,10 +29328,10 @@
     </row>
     <row r="46" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B46" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C46" s="24">
         <v>1</v>
@@ -29435,7 +29435,7 @@
     </row>
     <row r="48" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="43" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B48" s="43"/>
       <c r="C48" s="40"/>
@@ -29599,7 +29599,7 @@
     </row>
     <row r="51" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B51" s="41"/>
       <c r="D51" s="42">
@@ -29786,7 +29786,7 @@
     </row>
     <row r="55" spans="1:28" ht="21" x14ac:dyDescent="0.4">
       <c r="A55" s="53" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B55" s="41"/>
       <c r="D55" s="42"/>
@@ -29816,91 +29816,91 @@
     </row>
     <row r="56" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="52" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B56" s="41"/>
       <c r="D56" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="H56" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="I56" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="F56" s="42" t="s">
+      <c r="J56" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="G56" s="42" t="s">
+      <c r="K56" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="H56" s="42" t="s">
+      <c r="L56" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="I56" s="42" t="s">
+      <c r="M56" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="J56" s="42" t="s">
+      <c r="N56" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="K56" s="42" t="s">
+      <c r="O56" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="L56" s="42" t="s">
+      <c r="P56" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="M56" s="42" t="s">
+      <c r="Q56" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="N56" s="42" t="s">
+      <c r="R56" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="O56" s="42" t="s">
+      <c r="S56" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="P56" s="42" t="s">
+      <c r="T56" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="Q56" s="42" t="s">
+      <c r="U56" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="R56" s="42" t="s">
+      <c r="V56" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="S56" s="42" t="s">
+      <c r="W56" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="T56" s="42" t="s">
+      <c r="X56" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="U56" s="42" t="s">
+      <c r="Y56" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="V56" s="42" t="s">
+      <c r="Z56" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="W56" s="42" t="s">
+      <c r="AA56" s="42" t="s">
         <v>271</v>
-      </c>
-      <c r="X56" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y56" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z56" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA56" s="42" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="54" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D57" s="40">
         <v>47</v>
@@ -29977,13 +29977,13 @@
     </row>
     <row r="58" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D58" s="42">
         <v>0</v>
@@ -30058,13 +30058,13 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D59" s="42">
         <v>0</v>
@@ -30139,13 +30139,13 @@
     </row>
     <row r="60" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="43" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D60" s="44">
         <v>0</v>
@@ -30326,18 +30326,18 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="43" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D64" s="40">
         <v>47</v>
@@ -30414,10 +30414,10 @@
     </row>
     <row r="65" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B65" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D65" s="42">
         <v>100800</v>
@@ -30500,7 +30500,7 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D67" s="42">
         <f>D65-D61</f>
@@ -30631,7 +30631,7 @@
     </row>
     <row r="70" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="43" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B70" s="43"/>
       <c r="C70" s="40"/>
@@ -30820,12 +30820,12 @@
         <v>5838804.0251963697</v>
       </c>
       <c r="AC3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="34" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
@@ -30834,12 +30834,12 @@
         <v>4477122.9735000003</v>
       </c>
       <c r="AC4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -30848,95 +30848,95 @@
         <v>1361681.0516963692</v>
       </c>
       <c r="AC5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="H6" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="I6" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="J6" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="K6" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="L6" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="M6" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="N6" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="O6" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="P6" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="Q6" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="R6" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="S6" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="T6" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="U6" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="V6" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="W6" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="X6" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="U6" s="24" t="s">
+      <c r="Y6" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="V6" s="24" t="s">
+      <c r="Z6" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="W6" s="24" t="s">
+      <c r="AA6" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="X6" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y6" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z6" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA6" s="24" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D7" s="40">
         <v>47</v>
@@ -31014,13 +31014,13 @@
     </row>
     <row r="8" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D8" s="42">
         <v>4525</v>
@@ -31099,13 +31099,13 @@
     </row>
     <row r="9" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D9" s="44">
         <v>228800</v>
@@ -31345,13 +31345,13 @@
     </row>
     <row r="14" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -31381,13 +31381,13 @@
     </row>
     <row r="15" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>224</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D15" s="42">
         <v>0</v>
@@ -31468,13 +31468,13 @@
     </row>
     <row r="16" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="59" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>224</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D16" s="44">
         <v>94080</v>
@@ -31658,25 +31658,25 @@
     </row>
     <row r="19" spans="1:28" ht="21" x14ac:dyDescent="0.4">
       <c r="A19" s="53" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B19" s="41"/>
     </row>
     <row r="20" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="37" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B20" s="41"/>
     </row>
     <row r="21" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="38" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -31706,13 +31706,13 @@
     </row>
     <row r="22" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D22" s="42">
         <v>0</v>
@@ -31793,13 +31793,13 @@
     </row>
     <row r="23" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>305</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>309</v>
       </c>
       <c r="D23" s="44">
         <v>100800</v>
@@ -31986,13 +31986,13 @@
     </row>
     <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="43" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
@@ -32022,13 +32022,13 @@
     </row>
     <row r="28" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D28" s="42">
         <f>((D23+D16)-(D15+D22))</f>
@@ -32193,13 +32193,13 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B49" s="41"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B50" s="45">
         <v>2600</v>
@@ -32207,7 +32207,7 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B51" s="41">
         <v>44</v>
@@ -32215,91 +32215,91 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B52" s="41"/>
       <c r="D52" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H52" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="I52" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="J52" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="K52" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H52" s="24" t="s">
+      <c r="L52" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="I52" s="24" t="s">
+      <c r="M52" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="J52" s="24" t="s">
+      <c r="N52" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="K52" s="24" t="s">
+      <c r="O52" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="L52" s="24" t="s">
+      <c r="P52" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="M52" s="24" t="s">
+      <c r="Q52" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="N52" s="24" t="s">
+      <c r="R52" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="O52" s="24" t="s">
+      <c r="S52" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="P52" s="24" t="s">
+      <c r="T52" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="Q52" s="24" t="s">
+      <c r="U52" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="R52" s="24" t="s">
+      <c r="V52" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="S52" s="24" t="s">
+      <c r="W52" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="T52" s="24" t="s">
+      <c r="X52" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="U52" s="24" t="s">
+      <c r="Y52" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="V52" s="24" t="s">
+      <c r="Z52" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="W52" s="24" t="s">
+      <c r="AA52" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="X52" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y52" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z52" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA52" s="24" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="43" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D53" s="40">
         <v>47</v>
@@ -32376,10 +32376,10 @@
     </row>
     <row r="54" spans="1:29" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="46" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C54" s="48">
         <v>2</v>
@@ -32583,7 +32583,7 @@
     </row>
     <row r="56" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="43" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="40"/>
@@ -32716,7 +32716,7 @@
         <v>-294846.6100000001</v>
       </c>
       <c r="AC57" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
@@ -32775,7 +32775,7 @@
     </row>
     <row r="60" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="52" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B60" s="41"/>
       <c r="D60" s="42"/>
@@ -32805,7 +32805,7 @@
     </row>
     <row r="61" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="52" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B61" s="41"/>
       <c r="D61" s="42"/>
@@ -32835,13 +32835,13 @@
     </row>
     <row r="62" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="43" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D62" s="40">
         <v>47</v>
@@ -32919,13 +32919,13 @@
     </row>
     <row r="63" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B63" s="41" t="s">
         <v>224</v>
       </c>
       <c r="C63" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D63" s="42">
         <v>0</v>
@@ -33004,13 +33004,13 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B64" s="41" t="s">
         <v>224</v>
       </c>
       <c r="C64" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D64" s="42"/>
       <c r="E64" s="42"/>
@@ -33043,13 +33043,13 @@
     </row>
     <row r="65" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="43" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B65" s="39" t="s">
         <v>224</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D65" s="44"/>
       <c r="E65" s="44"/>
@@ -33258,90 +33258,90 @@
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D69" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H69" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E69" s="24" t="s">
+      <c r="I69" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="F69" s="24" t="s">
+      <c r="J69" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G69" s="24" t="s">
+      <c r="K69" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H69" s="24" t="s">
+      <c r="L69" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="I69" s="24" t="s">
+      <c r="M69" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="J69" s="24" t="s">
+      <c r="N69" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="K69" s="24" t="s">
+      <c r="O69" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="L69" s="24" t="s">
+      <c r="P69" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="M69" s="24" t="s">
+      <c r="Q69" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="N69" s="24" t="s">
+      <c r="R69" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="O69" s="24" t="s">
+      <c r="S69" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="P69" s="24" t="s">
+      <c r="T69" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="Q69" s="24" t="s">
+      <c r="U69" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="R69" s="24" t="s">
+      <c r="V69" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="S69" s="24" t="s">
+      <c r="W69" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="T69" s="24" t="s">
+      <c r="X69" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="U69" s="24" t="s">
+      <c r="Y69" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="V69" s="24" t="s">
+      <c r="Z69" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="W69" s="24" t="s">
+      <c r="AA69" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="X69" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y69" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z69" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA69" s="24" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="43" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D70" s="40">
         <v>47</v>
@@ -33418,10 +33418,10 @@
     </row>
     <row r="71" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B71" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C71" s="24">
         <v>1</v>
@@ -33525,7 +33525,7 @@
     </row>
     <row r="73" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="43" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B73" s="43"/>
       <c r="C73" s="40"/>
@@ -33689,7 +33689,7 @@
     </row>
     <row r="76" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B76" s="41"/>
       <c r="D76" s="42">
@@ -33876,7 +33876,7 @@
     </row>
     <row r="80" spans="1:29" ht="21" x14ac:dyDescent="0.4">
       <c r="A80" s="53" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B80" s="41"/>
       <c r="D80" s="42"/>
@@ -33906,91 +33906,91 @@
     </row>
     <row r="81" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="52" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B81" s="41"/>
       <c r="D81" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="E81" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="F81" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="G81" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="H81" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="E81" s="42" t="s">
+      <c r="I81" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="F81" s="42" t="s">
+      <c r="J81" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="G81" s="42" t="s">
+      <c r="K81" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="H81" s="42" t="s">
+      <c r="L81" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="I81" s="42" t="s">
+      <c r="M81" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="J81" s="42" t="s">
+      <c r="N81" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="K81" s="42" t="s">
+      <c r="O81" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="L81" s="42" t="s">
+      <c r="P81" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="M81" s="42" t="s">
+      <c r="Q81" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="N81" s="42" t="s">
+      <c r="R81" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="O81" s="42" t="s">
+      <c r="S81" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="P81" s="42" t="s">
+      <c r="T81" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="Q81" s="42" t="s">
+      <c r="U81" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="R81" s="42" t="s">
+      <c r="V81" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="S81" s="42" t="s">
+      <c r="W81" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="T81" s="42" t="s">
+      <c r="X81" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="U81" s="42" t="s">
+      <c r="Y81" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="V81" s="42" t="s">
+      <c r="Z81" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="W81" s="42" t="s">
+      <c r="AA81" s="42" t="s">
         <v>271</v>
-      </c>
-      <c r="X81" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y81" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z81" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA81" s="42" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="54" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D82" s="40">
         <v>47</v>
@@ -34067,13 +34067,13 @@
     </row>
     <row r="83" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B83" s="41" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D83" s="42">
         <v>0</v>
@@ -34148,13 +34148,13 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B84" s="41" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D84" s="42">
         <v>0</v>
@@ -34229,13 +34229,13 @@
     </row>
     <row r="85" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="43" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D85" s="44">
         <v>0</v>
@@ -34416,18 +34416,18 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="43" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D89" s="40">
         <v>47</v>
@@ -34504,10 +34504,10 @@
     </row>
     <row r="90" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B90" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D90" s="42">
         <v>100800</v>
@@ -34590,7 +34590,7 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D92" s="42">
         <f>D90-D86</f>
@@ -34721,7 +34721,7 @@
     </row>
     <row r="95" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="43" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B95" s="43"/>
       <c r="C95" s="40"/>
@@ -34930,12 +34930,12 @@
         <v>6677162.0251963697</v>
       </c>
       <c r="AC3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="34" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
@@ -34944,12 +34944,12 @@
         <v>5315480.9735000003</v>
       </c>
       <c r="AC4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -34958,95 +34958,95 @@
         <v>1361681.0516963692</v>
       </c>
       <c r="AC5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="H6" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="I6" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="J6" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="K6" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="L6" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="M6" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="N6" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="O6" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="P6" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="Q6" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="R6" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="S6" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="T6" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="U6" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="V6" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="W6" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="X6" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="U6" s="24" t="s">
+      <c r="Y6" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="V6" s="24" t="s">
+      <c r="Z6" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="W6" s="24" t="s">
+      <c r="AA6" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="X6" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y6" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z6" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA6" s="24" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D7" s="40">
         <v>47</v>
@@ -35124,13 +35124,13 @@
     </row>
     <row r="8" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D8" s="42">
         <v>4525</v>
@@ -35209,13 +35209,13 @@
     </row>
     <row r="9" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D9" s="44">
         <v>228800</v>
@@ -35452,13 +35452,13 @@
     </row>
     <row r="13" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D13" s="40">
         <v>47</v>
@@ -35536,13 +35536,13 @@
     </row>
     <row r="14" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D14" s="42">
         <v>6000</v>
@@ -35621,13 +35621,13 @@
     </row>
     <row r="15" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="59" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D15" s="44">
         <v>158400</v>
@@ -35923,13 +35923,13 @@
     </row>
     <row r="22" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -35959,13 +35959,13 @@
     </row>
     <row r="23" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>224</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D23" s="42">
         <v>0</v>
@@ -36046,13 +36046,13 @@
     </row>
     <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="59" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B24" s="40" t="s">
         <v>224</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D24" s="44">
         <v>94080</v>
@@ -36236,25 +36236,25 @@
     </row>
     <row r="27" spans="1:28" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="53" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B27" s="41"/>
     </row>
     <row r="28" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="37" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B28" s="41"/>
     </row>
     <row r="29" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="38" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
@@ -36284,13 +36284,13 @@
     </row>
     <row r="30" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D30" s="42">
         <v>0</v>
@@ -36371,13 +36371,13 @@
     </row>
     <row r="31" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="C31" s="40" t="s">
         <v>305</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>309</v>
       </c>
       <c r="D31" s="44">
         <v>100800</v>
@@ -36564,13 +36564,13 @@
     </row>
     <row r="35" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="43" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
@@ -36600,13 +36600,13 @@
     </row>
     <row r="36" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D36" s="42">
         <f>((D31+D24)-(D23+D30))</f>
@@ -36771,13 +36771,13 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B57" s="41"/>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B58" s="45">
         <v>2600</v>
@@ -36785,7 +36785,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B59" s="41">
         <v>44</v>
@@ -36793,91 +36793,91 @@
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B60" s="41"/>
       <c r="D60" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H60" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="I60" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="J60" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G60" s="24" t="s">
+      <c r="K60" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H60" s="24" t="s">
+      <c r="L60" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="I60" s="24" t="s">
+      <c r="M60" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="J60" s="24" t="s">
+      <c r="N60" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="K60" s="24" t="s">
+      <c r="O60" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="L60" s="24" t="s">
+      <c r="P60" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="M60" s="24" t="s">
+      <c r="Q60" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="N60" s="24" t="s">
+      <c r="R60" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="O60" s="24" t="s">
+      <c r="S60" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="P60" s="24" t="s">
+      <c r="T60" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="Q60" s="24" t="s">
+      <c r="U60" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="R60" s="24" t="s">
+      <c r="V60" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="S60" s="24" t="s">
+      <c r="W60" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="T60" s="24" t="s">
+      <c r="X60" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="U60" s="24" t="s">
+      <c r="Y60" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="V60" s="24" t="s">
+      <c r="Z60" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="W60" s="24" t="s">
+      <c r="AA60" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="X60" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y60" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z60" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA60" s="24" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="43" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D61" s="40">
         <v>47</v>
@@ -36954,10 +36954,10 @@
     </row>
     <row r="62" spans="1:28" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="46" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C62" s="48">
         <v>2</v>
@@ -37161,7 +37161,7 @@
     </row>
     <row r="64" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="43" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="40"/>
@@ -37294,7 +37294,7 @@
         <v>-294846.6100000001</v>
       </c>
       <c r="AC65" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
@@ -37353,7 +37353,7 @@
     </row>
     <row r="68" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="52" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B68" s="41"/>
       <c r="D68" s="42"/>
@@ -37383,7 +37383,7 @@
     </row>
     <row r="69" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="52" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B69" s="41"/>
       <c r="D69" s="42"/>
@@ -37413,13 +37413,13 @@
     </row>
     <row r="70" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="43" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D70" s="40">
         <v>47</v>
@@ -37497,13 +37497,13 @@
     </row>
     <row r="71" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B71" s="41" t="s">
         <v>224</v>
       </c>
       <c r="C71" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D71" s="42">
         <v>0</v>
@@ -37582,13 +37582,13 @@
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B72" s="41" t="s">
         <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D72" s="42"/>
       <c r="E72" s="42"/>
@@ -37621,13 +37621,13 @@
     </row>
     <row r="73" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="43" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B73" s="39" t="s">
         <v>224</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D73" s="44"/>
       <c r="E73" s="44"/>
@@ -37836,90 +37836,90 @@
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D77" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="H77" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E77" s="24" t="s">
+      <c r="I77" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="F77" s="24" t="s">
+      <c r="J77" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G77" s="24" t="s">
+      <c r="K77" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H77" s="24" t="s">
+      <c r="L77" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="I77" s="24" t="s">
+      <c r="M77" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="J77" s="24" t="s">
+      <c r="N77" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="K77" s="24" t="s">
+      <c r="O77" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="L77" s="24" t="s">
+      <c r="P77" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="M77" s="24" t="s">
+      <c r="Q77" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="N77" s="24" t="s">
+      <c r="R77" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="O77" s="24" t="s">
+      <c r="S77" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="P77" s="24" t="s">
+      <c r="T77" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="Q77" s="24" t="s">
+      <c r="U77" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="R77" s="24" t="s">
+      <c r="V77" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="S77" s="24" t="s">
+      <c r="W77" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="T77" s="24" t="s">
+      <c r="X77" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="U77" s="24" t="s">
+      <c r="Y77" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="V77" s="24" t="s">
+      <c r="Z77" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="W77" s="24" t="s">
+      <c r="AA77" s="24" t="s">
         <v>271</v>
-      </c>
-      <c r="X77" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y77" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z77" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA77" s="24" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="43" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D78" s="40">
         <v>47</v>
@@ -37996,10 +37996,10 @@
     </row>
     <row r="79" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B79" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C79" s="24">
         <v>1</v>
@@ -38103,7 +38103,7 @@
     </row>
     <row r="81" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="43" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B81" s="43"/>
       <c r="C81" s="40"/>
@@ -38267,7 +38267,7 @@
     </row>
     <row r="84" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B84" s="41"/>
       <c r="D84" s="42">
@@ -38454,7 +38454,7 @@
     </row>
     <row r="88" spans="1:28" ht="21" x14ac:dyDescent="0.4">
       <c r="A88" s="53" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B88" s="41"/>
       <c r="D88" s="42"/>
@@ -38484,91 +38484,91 @@
     </row>
     <row r="89" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="52" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B89" s="41"/>
       <c r="D89" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="E89" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="F89" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="G89" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="H89" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="I89" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="F89" s="42" t="s">
+      <c r="J89" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="G89" s="42" t="s">
+      <c r="K89" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="H89" s="42" t="s">
+      <c r="L89" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="I89" s="42" t="s">
+      <c r="M89" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="J89" s="42" t="s">
+      <c r="N89" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="K89" s="42" t="s">
+      <c r="O89" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="L89" s="42" t="s">
+      <c r="P89" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="M89" s="42" t="s">
+      <c r="Q89" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="N89" s="42" t="s">
+      <c r="R89" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="O89" s="42" t="s">
+      <c r="S89" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="P89" s="42" t="s">
+      <c r="T89" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="Q89" s="42" t="s">
+      <c r="U89" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="R89" s="42" t="s">
+      <c r="V89" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="S89" s="42" t="s">
+      <c r="W89" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="T89" s="42" t="s">
+      <c r="X89" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="U89" s="42" t="s">
+      <c r="Y89" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="V89" s="42" t="s">
+      <c r="Z89" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="W89" s="42" t="s">
+      <c r="AA89" s="42" t="s">
         <v>271</v>
-      </c>
-      <c r="X89" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y89" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z89" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA89" s="42" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="54" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B90" s="39" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D90" s="40">
         <v>47</v>
@@ -38645,13 +38645,13 @@
     </row>
     <row r="91" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B91" s="41" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D91" s="42">
         <v>0</v>
@@ -38726,13 +38726,13 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B92" s="41" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D92" s="42">
         <v>0</v>
@@ -38807,13 +38807,13 @@
     </row>
     <row r="93" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="43" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D93" s="44">
         <v>0</v>
@@ -38994,18 +38994,18 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="43" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D97" s="40">
         <v>47</v>
@@ -39082,10 +39082,10 @@
     </row>
     <row r="98" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B98" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D98" s="42">
         <v>100800</v>
@@ -39168,7 +39168,7 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D100" s="42">
         <f>D98-D94</f>
@@ -39299,7 +39299,7 @@
     </row>
     <row r="103" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="43" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B103" s="43"/>
       <c r="C103" s="40"/>
